--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H2">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I2">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J2">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N2">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O2">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P2">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q2">
-        <v>0.278978930109</v>
+        <v>2.659857255591556</v>
       </c>
       <c r="R2">
-        <v>2.510810370981</v>
+        <v>23.938715300324</v>
       </c>
       <c r="S2">
-        <v>1.47314058384055E-06</v>
+        <v>1.682502745027773E-05</v>
       </c>
       <c r="T2">
-        <v>1.485407766709186E-06</v>
+        <v>1.690853752589514E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H3">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I3">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J3">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P3">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q3">
-        <v>1.253640022596</v>
+        <v>3.404175971889333</v>
       </c>
       <c r="R3">
-        <v>11.282760203364</v>
+        <v>30.637583747004</v>
       </c>
       <c r="S3">
-        <v>6.619811733063111E-06</v>
+        <v>2.153324357997392E-05</v>
       </c>
       <c r="T3">
-        <v>6.674936438726789E-06</v>
+        <v>2.164012262103141E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H4">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I4">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J4">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N4">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O4">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P4">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q4">
-        <v>680.025824995095</v>
+        <v>3478.242257251643</v>
       </c>
       <c r="R4">
-        <v>6120.232424955854</v>
+        <v>31304.18031526478</v>
       </c>
       <c r="S4">
-        <v>0.003590857705521067</v>
+        <v>0.02200175266321185</v>
       </c>
       <c r="T4">
-        <v>0.003620759609393702</v>
+        <v>0.02211095712270235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H5">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I5">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J5">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N5">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O5">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P5">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q5">
-        <v>0.5923158066225001</v>
+        <v>10.37784078191917</v>
       </c>
       <c r="R5">
-        <v>3.553894839735</v>
+        <v>62.267044691515</v>
       </c>
       <c r="S5">
-        <v>3.127707360713355E-06</v>
+        <v>6.564542351411591E-05</v>
       </c>
       <c r="T5">
-        <v>2.102501669589453E-06</v>
+        <v>4.398083391629715E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H6">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I6">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J6">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N6">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O6">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P6">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q6">
-        <v>830.636257743396</v>
+        <v>634.438294155067</v>
       </c>
       <c r="R6">
-        <v>7475.726319690563</v>
+        <v>5709.944647395603</v>
       </c>
       <c r="S6">
-        <v>0.004386151962132571</v>
+        <v>0.004013163372668423</v>
       </c>
       <c r="T6">
-        <v>0.004422676465495877</v>
+        <v>0.004033082482916949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>429.64891</v>
       </c>
       <c r="I7">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J7">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N7">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O7">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P7">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q7">
-        <v>9.925414947445557</v>
+        <v>34.84949143284889</v>
       </c>
       <c r="R7">
-        <v>89.32873452701</v>
+        <v>313.64542289564</v>
       </c>
       <c r="S7">
-        <v>5.24108812261445E-05</v>
+        <v>0.0002204417732392552</v>
       </c>
       <c r="T7">
-        <v>5.284731877416951E-05</v>
+        <v>0.0002215359235582873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>429.64891</v>
       </c>
       <c r="I8">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J8">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P8">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q8">
         <v>44.60156691449333</v>
@@ -948,10 +948,10 @@
         <v>401.41410223044</v>
       </c>
       <c r="S8">
-        <v>0.000235517349998255</v>
+        <v>0.0002821288947308019</v>
       </c>
       <c r="T8">
-        <v>0.0002374785575251246</v>
+        <v>0.0002835292256011349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>429.64891</v>
       </c>
       <c r="I9">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J9">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N9">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O9">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P9">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q9">
-        <v>24193.72131586495</v>
+        <v>45571.98454565403</v>
       </c>
       <c r="R9">
-        <v>217743.4918427845</v>
+        <v>410147.8609108863</v>
       </c>
       <c r="S9">
-        <v>0.1277542814097238</v>
+        <v>0.2882673080791832</v>
       </c>
       <c r="T9">
-        <v>0.1288181209030453</v>
+        <v>0.2896981066182562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>429.64891</v>
       </c>
       <c r="I10">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J10">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N10">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O10">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P10">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q10">
-        <v>21.073204913225</v>
+        <v>135.9706325069417</v>
       </c>
       <c r="R10">
-        <v>126.43922947935</v>
+        <v>815.82379504165</v>
       </c>
       <c r="S10">
-        <v>0.0001112764801884167</v>
+        <v>0.0008600873673020209</v>
       </c>
       <c r="T10">
-        <v>7.480207014278452E-05</v>
+        <v>0.0005762375749877115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>429.64891</v>
       </c>
       <c r="I11">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J11">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N11">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O11">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P11">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q11">
-        <v>29552.08669441583</v>
+        <v>8312.42046931237</v>
       </c>
       <c r="R11">
-        <v>265968.7802497424</v>
+        <v>74811.78422381134</v>
       </c>
       <c r="S11">
-        <v>0.1560489827303766</v>
+        <v>0.05258052938007264</v>
       </c>
       <c r="T11">
-        <v>0.157348438755563</v>
+        <v>0.05284150987460733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H12">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I12">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J12">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N12">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O12">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P12">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q12">
-        <v>5.940738859777334</v>
+        <v>38.24952188749511</v>
       </c>
       <c r="R12">
-        <v>53.46664973799601</v>
+        <v>344.245696987456</v>
       </c>
       <c r="S12">
-        <v>3.13699085049803E-05</v>
+        <v>0.0002419487941934606</v>
       </c>
       <c r="T12">
-        <v>3.163113299938649E-05</v>
+        <v>0.000243149693399025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H13">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I13">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J13">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.934284</v>
       </c>
       <c r="O13">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P13">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q13">
-        <v>26.695736468336</v>
+        <v>48.95304177393066</v>
       </c>
       <c r="R13">
-        <v>240.261628215024</v>
+        <v>440.577375965376</v>
       </c>
       <c r="S13">
-        <v>0.0001409661037543325</v>
+        <v>0.0003096543131739595</v>
       </c>
       <c r="T13">
-        <v>0.0001421399611526028</v>
+        <v>0.0003111912649076096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H14">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I14">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J14">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N14">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O14">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P14">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q14">
-        <v>14480.86363591002</v>
+        <v>50018.13652558908</v>
       </c>
       <c r="R14">
-        <v>130327.7727231902</v>
+        <v>450163.2287303017</v>
       </c>
       <c r="S14">
-        <v>0.07646580300091158</v>
+        <v>0.3163916102210576</v>
       </c>
       <c r="T14">
-        <v>0.07710255145445283</v>
+        <v>0.3179620021489377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H15">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I15">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J15">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N15">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O15">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P15">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q15">
-        <v>12.61311572271</v>
+        <v>149.2363724776933</v>
       </c>
       <c r="R15">
-        <v>75.67869433626001</v>
+        <v>895.41823486616</v>
       </c>
       <c r="S15">
-        <v>6.660321140575626E-05</v>
+        <v>0.0009440003061211772</v>
       </c>
       <c r="T15">
-        <v>4.477188784972634E-05</v>
+        <v>0.0006324571989625668</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H16">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I16">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J16">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N16">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O16">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P16">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q16">
-        <v>17688.04939064114</v>
+        <v>9123.407418776047</v>
       </c>
       <c r="R16">
-        <v>159192.4445157702</v>
+        <v>82110.66676898443</v>
       </c>
       <c r="S16">
-        <v>0.09340125935728846</v>
+        <v>0.05771045793464416</v>
       </c>
       <c r="T16">
-        <v>0.09417903327870859</v>
+        <v>0.05799690054047527</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H17">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I17">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J17">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N17">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O17">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P17">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q17">
-        <v>0.8516863778371667</v>
+        <v>1.253990894478667</v>
       </c>
       <c r="R17">
-        <v>5.110118267023001</v>
+        <v>7.523945366872</v>
       </c>
       <c r="S17">
-        <v>4.497306543565424E-06</v>
+        <v>7.932166727236488E-06</v>
       </c>
       <c r="T17">
-        <v>3.023171104583546E-06</v>
+        <v>5.314358393193233E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H18">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I18">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J18">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.934284</v>
       </c>
       <c r="O18">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P18">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q18">
-        <v>3.827199887602</v>
+        <v>1.604900286652</v>
       </c>
       <c r="R18">
-        <v>22.963199325612</v>
+        <v>9.629401719912</v>
       </c>
       <c r="S18">
-        <v>2.020942396866197E-05</v>
+        <v>1.015185733035629E-05</v>
       </c>
       <c r="T18">
-        <v>1.358514168213675E-05</v>
+        <v>6.801497001422111E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H19">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I19">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J19">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N19">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O19">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P19">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q19">
-        <v>2076.030370822328</v>
+        <v>1639.818870059792</v>
       </c>
       <c r="R19">
-        <v>12456.18222493397</v>
+        <v>9838.913220358752</v>
       </c>
       <c r="S19">
-        <v>0.01096242139630048</v>
+        <v>0.0103727361474905</v>
       </c>
       <c r="T19">
-        <v>0.007369138679012505</v>
+        <v>0.006949480425886103</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H20">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I20">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J20">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N20">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O20">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P20">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q20">
-        <v>1.80826309600125</v>
+        <v>4.8926376847925</v>
       </c>
       <c r="R20">
-        <v>7.233052384005001</v>
+        <v>19.57055073917</v>
       </c>
       <c r="S20">
-        <v>9.548483650502986E-06</v>
+        <v>3.094856431782062E-05</v>
       </c>
       <c r="T20">
-        <v>4.279109371377026E-06</v>
+        <v>1.382318923234833E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H21">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I21">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J21">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N21">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O21">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P21">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q21">
-        <v>2535.824427247202</v>
+        <v>299.106217939539</v>
       </c>
       <c r="R21">
-        <v>15214.94656348321</v>
+        <v>1794.637307637234</v>
       </c>
       <c r="S21">
-        <v>0.01339035129216576</v>
+        <v>0.001892007669510171</v>
       </c>
       <c r="T21">
-        <v>0.009001237232675995</v>
+        <v>0.001267599028638972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H22">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I22">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J22">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N22">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O22">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P22">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q22">
-        <v>17.92692728138767</v>
+        <v>24.82355760985956</v>
       </c>
       <c r="R22">
-        <v>161.342345532489</v>
+        <v>223.412018488736</v>
       </c>
       <c r="S22">
-        <v>9.466264750335186E-05</v>
+        <v>0.0001570223504744244</v>
       </c>
       <c r="T22">
-        <v>9.545092529604256E-05</v>
+        <v>0.0001578017220624051</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H23">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I23">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J23">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.934284</v>
       </c>
       <c r="O23">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P23">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q23">
-        <v>80.55774503592399</v>
+        <v>31.77003509291734</v>
       </c>
       <c r="R23">
-        <v>725.019705323316</v>
+        <v>285.930315836256</v>
       </c>
       <c r="S23">
-        <v>0.0004253829617481595</v>
+        <v>0.0002009625559457853</v>
       </c>
       <c r="T23">
-        <v>0.000428925224203086</v>
+        <v>0.0002019600222674836</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H24">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I24">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J24">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N24">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O24">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P24">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q24">
-        <v>43697.82875498755</v>
+        <v>32461.27094693714</v>
       </c>
       <c r="R24">
-        <v>393280.4587948879</v>
+        <v>292151.4385224342</v>
       </c>
       <c r="S24">
-        <v>0.2307451854501538</v>
+        <v>0.2053349944268544</v>
       </c>
       <c r="T24">
-        <v>0.2326666540574439</v>
+        <v>0.2063541631005557</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H25">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I25">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J25">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N25">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O25">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P25">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q25">
-        <v>38.0616643299525</v>
+        <v>96.85291493532668</v>
       </c>
       <c r="R25">
-        <v>228.369985979715</v>
+        <v>581.11748961196</v>
       </c>
       <c r="S25">
-        <v>0.0002009835738887594</v>
+        <v>0.0006126467685439274</v>
       </c>
       <c r="T25">
-        <v>0.0001351048071085507</v>
+        <v>0.0004104584041702864</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H26">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I26">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J26">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N26">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O26">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P26">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q26">
-        <v>53375.91546441111</v>
+        <v>5921.000276143289</v>
       </c>
       <c r="R26">
-        <v>480383.2391797001</v>
+        <v>53289.00248528959</v>
       </c>
       <c r="S26">
-        <v>0.2818500567033673</v>
+        <v>0.0374535106986623</v>
       </c>
       <c r="T26">
-        <v>0.2841970874111237</v>
+        <v>0.03763940908841685</v>
       </c>
     </row>
   </sheetData>
